--- a/vartutechnika.lt/Data/GarageDoorPriceCalculation/Should_Calculate_Garage_Door_Price_Succesfully.xlsx
+++ b/vartutechnika.lt/Data/GarageDoorPriceCalculation/Should_Calculate_Garage_Door_Price_Succesfully.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martynas\source\repos\ATFramework\vartutechnika.lt\Data\GarageDoorPriceCalculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC65765B-3A6D-4D92-BAA2-8CE77D3CC80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27505837-76B6-4DEB-9B94-F7C761B2D0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="20745" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>DoorsWidth</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>781.52</t>
+  </si>
+  <si>
+    <t>781.53</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +471,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
